--- a/data/trans_orig/P32B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10283</v>
+        <v>11282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008418370654177981</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00207424198869266</v>
+        <v>0.0020586365014671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02340558894177741</v>
+        <v>0.02568069635613549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>3698</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10890</v>
+        <v>11922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005965801927290832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001463017925478562</v>
+        <v>0.001472489489131649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01756641579387349</v>
+        <v>0.01923170705721518</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>435621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>429036</v>
+        <v>428037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>438408</v>
+        <v>438415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9915816293458221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9765944110582225</v>
+        <v>0.9743193036438642</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979257580113073</v>
+        <v>0.9979413634985329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -841,19 +841,19 @@
         <v>616227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609035</v>
+        <v>608003</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619018</v>
+        <v>619012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9940341980727092</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9824335842061267</v>
+        <v>0.9807682929427848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9985369820745215</v>
+        <v>0.9985275105108684</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>4881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1891</v>
+        <v>1906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10752</v>
+        <v>10926</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008387557595364104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003248980179177141</v>
+        <v>0.003275286506477106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01847776628425127</v>
+        <v>0.01877657416661235</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8710</v>
+        <v>8173</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007981815579912985</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03127521692785996</v>
+        <v>0.02934358999372022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -987,19 +987,19 @@
         <v>7104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2902</v>
+        <v>3077</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14201</v>
+        <v>15323</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008256220775927281</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003373173240442261</v>
+        <v>0.003575884749800027</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01650439570401858</v>
+        <v>0.01780933129353962</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>577018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>571147</v>
+        <v>570973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580008</v>
+        <v>579993</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9916124424046359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.981522233715749</v>
+        <v>0.9812234258333877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9967510198208229</v>
+        <v>0.9967247134935229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>260</v>
@@ -1037,7 +1037,7 @@
         <v>276288</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>269801</v>
+        <v>270338</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>278511</v>
@@ -1046,7 +1046,7 @@
         <v>0.992018184420087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9687247830721405</v>
+        <v>0.9706564100062794</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>853305</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>846208</v>
+        <v>845086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857507</v>
+        <v>857332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917437792240728</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9834956042959812</v>
+        <v>0.9821906687064601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9966268267595577</v>
+        <v>0.9964241152501999</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>2666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7156</v>
+        <v>7449</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00807877115889025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002317864576779272</v>
+        <v>0.00232569381329307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02168067954030652</v>
+        <v>0.02256781416535822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1196,19 +1196,19 @@
         <v>2666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7093</v>
+        <v>7362</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005791504715848559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001664966836429758</v>
+        <v>0.001683204671545628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01540610591961904</v>
+        <v>0.01598957984757141</v>
       </c>
     </row>
     <row r="11">
@@ -1225,19 +1225,19 @@
         <v>327386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322896</v>
+        <v>322603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329287</v>
+        <v>329284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9919212288411098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9783193204596938</v>
+        <v>0.9774321858346421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9976821354232208</v>
+        <v>0.9976743061867069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -1259,19 +1259,19 @@
         <v>457735</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>453308</v>
+        <v>453039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>459634</v>
+        <v>459626</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9942084952841515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9845938940803808</v>
+        <v>0.9840104201524286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9983350331635702</v>
+        <v>0.9983167953284544</v>
       </c>
     </row>
     <row r="12">
@@ -1363,19 +1363,19 @@
         <v>4098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>889</v>
+        <v>1450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9706</v>
+        <v>10944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007751147720937663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001680723809332322</v>
+        <v>0.00274360006400194</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0183594612442231</v>
+        <v>0.02070181923934419</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1384,19 +1384,19 @@
         <v>7108</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3033</v>
+        <v>2957</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13327</v>
+        <v>14152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02330103861243639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009943991151883776</v>
+        <v>0.00969320433190256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04368644325186865</v>
+        <v>0.0463906992491537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1405,19 +1405,19 @@
         <v>11206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5837</v>
+        <v>5834</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20690</v>
+        <v>19253</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01344090409645551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007001693647929571</v>
+        <v>0.006998025365172751</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0248165745111405</v>
+        <v>0.0230930315675068</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>524551</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>518943</v>
+        <v>517705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>527760</v>
+        <v>527199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9922488522790623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9816405387557769</v>
+        <v>0.9792981807606558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983192761906676</v>
+        <v>0.9972563999359981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -1455,19 +1455,19 @@
         <v>297947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>291728</v>
+        <v>290903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>302022</v>
+        <v>302098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9766989613875636</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9563135567481312</v>
+        <v>0.9536093007508462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9900560088481162</v>
+        <v>0.9903067956680974</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>839</v>
@@ -1476,19 +1476,19 @@
         <v>822498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>813014</v>
+        <v>814451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>827867</v>
+        <v>827870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9865590959035445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9751834254888603</v>
+        <v>0.9769069684324931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9929983063520705</v>
+        <v>0.9930019746348272</v>
       </c>
     </row>
     <row r="15">
@@ -1580,19 +1580,19 @@
         <v>15343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008161581761138048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1601,19 +1601,19 @@
         <v>9331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01043141985370172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1622,19 +1622,19 @@
         <v>24674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008893411436093571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>1864575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1855093</v>
+        <v>1855669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1871044</v>
+        <v>1870670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.991838418238862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9867946314755831</v>
+        <v>0.9871009732079083</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9952796222203059</v>
+        <v>0.995080791859333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>865</v>
@@ -1672,19 +1672,19 @@
         <v>885189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>877325</v>
+        <v>877071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>890195</v>
+        <v>889506</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9895685801462982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9807775164766285</v>
+        <v>0.9804937494637324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951645250068415</v>
+        <v>0.9943946511215495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2695</v>
@@ -1693,19 +1693,19 @@
         <v>2749765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2739102</v>
+        <v>2738393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2758141</v>
+        <v>2758158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9911065885639064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9872634337710695</v>
+        <v>0.9870077976192693</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9941256599926802</v>
+        <v>0.9941316723564628</v>
       </c>
     </row>
     <row r="18">
@@ -2037,19 +2037,19 @@
         <v>8718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4037</v>
+        <v>4415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15993</v>
+        <v>15858</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02036380168577814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009428972265960997</v>
+        <v>0.01031347739746664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03735481842705392</v>
+        <v>0.03704065755319393</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>8718</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4248</v>
+        <v>4522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14471</v>
+        <v>15191</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01444526635620527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007039082672079771</v>
+        <v>0.007491856766541369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02397649000099711</v>
+        <v>0.02516946300296016</v>
       </c>
     </row>
     <row r="5">
@@ -2100,19 +2100,19 @@
         <v>419410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412135</v>
+        <v>412270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424091</v>
+        <v>423713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9796361983142219</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.962645181572946</v>
+        <v>0.9629593424468059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905710277340389</v>
+        <v>0.9896865226025333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -2134,19 +2134,19 @@
         <v>594823</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>589070</v>
+        <v>588350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>599293</v>
+        <v>599019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9855547336437948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9760235099990029</v>
+        <v>0.9748305369970398</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9929609173279202</v>
+        <v>0.9925081432334587</v>
       </c>
     </row>
     <row r="6">
@@ -2238,19 +2238,19 @@
         <v>12593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7000</v>
+        <v>6322</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22621</v>
+        <v>22387</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02114963930985032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01175520839573323</v>
+        <v>0.01061769493575369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03799010310734151</v>
+        <v>0.03759787289746057</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6598</v>
+        <v>7072</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006819949344595181</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02225611041469576</v>
+        <v>0.02385320518401631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2280,19 +2280,19 @@
         <v>14615</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7875</v>
+        <v>8255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24405</v>
+        <v>25185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01638659069107079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008829064693354594</v>
+        <v>0.009255692946427013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02736229247073337</v>
+        <v>0.02823774447495835</v>
       </c>
     </row>
     <row r="8">
@@ -2309,19 +2309,19 @@
         <v>582851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>572823</v>
+        <v>573057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>588444</v>
+        <v>589122</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9788503606901496</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9620098968926578</v>
+        <v>0.9624021271025394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9882447916042666</v>
+        <v>0.9893823050642463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>269</v>
@@ -2330,7 +2330,7 @@
         <v>294438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>289862</v>
+        <v>289388</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>296460</v>
@@ -2339,7 +2339,7 @@
         <v>0.9931800506554048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9777438895853022</v>
+        <v>0.9761467948159839</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2351,19 +2351,19 @@
         <v>877289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867499</v>
+        <v>866719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>884029</v>
+        <v>883649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9836134093089292</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9726377075292668</v>
+        <v>0.9717622555250417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.991170935306646</v>
+        <v>0.9907443070535731</v>
       </c>
     </row>
     <row r="9">
@@ -2455,19 +2455,19 @@
         <v>12182</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6233</v>
+        <v>6263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21658</v>
+        <v>22097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02650335164464238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01356119426817053</v>
+        <v>0.01362704731609361</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04712020530488083</v>
+        <v>0.04807586213465032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4515</v>
+        <v>5012</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004819244649494566</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02184769077480309</v>
+        <v>0.02425075167506629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2497,19 +2497,19 @@
         <v>13178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6828</v>
+        <v>6767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22122</v>
+        <v>22184</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01977724798649543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01024703756309545</v>
+        <v>0.01015554261818761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03320039960457163</v>
+        <v>0.03329362819044084</v>
       </c>
     </row>
     <row r="11">
@@ -2526,19 +2526,19 @@
         <v>447445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>437969</v>
+        <v>437530</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453394</v>
+        <v>453364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9734966483553577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9528797946951202</v>
+        <v>0.95192413786535</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9864388057318294</v>
+        <v>0.9863729526839066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -2547,7 +2547,7 @@
         <v>205683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>202164</v>
+        <v>201667</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>206679</v>
@@ -2556,7 +2556,7 @@
         <v>0.9951807553505054</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9781523092251982</v>
+        <v>0.9757492483249337</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2568,19 +2568,19 @@
         <v>653128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644184</v>
+        <v>644122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659478</v>
+        <v>659539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9802227520135046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9667996003954283</v>
+        <v>0.9667063718095592</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9897529624369046</v>
+        <v>0.9898444573818125</v>
       </c>
     </row>
     <row r="12">
@@ -2672,19 +2672,19 @@
         <v>24968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15450</v>
+        <v>16178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35543</v>
+        <v>37012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04466223187382484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02763633801282886</v>
+        <v>0.02893816400325038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06357850940217302</v>
+        <v>0.0662057869295965</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -2693,19 +2693,19 @@
         <v>4189</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9813</v>
+        <v>9727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0113149871752837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003040185818484534</v>
+        <v>0.003042139237078254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02650825398693723</v>
+        <v>0.02627607692629846</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -2714,19 +2714,19 @@
         <v>29157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20048</v>
+        <v>19369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42516</v>
+        <v>42019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0313774185733449</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02157448815742328</v>
+        <v>0.02084386471882561</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04575445385010773</v>
+        <v>0.0452195733529441</v>
       </c>
     </row>
     <row r="14">
@@ -2743,19 +2743,19 @@
         <v>534076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>523501</v>
+        <v>522032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>543594</v>
+        <v>542866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9553377681261751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.936421490597827</v>
+        <v>0.9337942130704034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9723636619871712</v>
+        <v>0.9710618359967496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>344</v>
@@ -2764,19 +2764,19 @@
         <v>365995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360371</v>
+        <v>360457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369059</v>
+        <v>369058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9886850128247163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9734917460130627</v>
+        <v>0.9737239230737016</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9969598141815155</v>
+        <v>0.9969578607629218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>862</v>
@@ -2785,19 +2785,19 @@
         <v>900072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>886713</v>
+        <v>887210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>909181</v>
+        <v>909860</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9686225814266551</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9542455461498922</v>
+        <v>0.954780426647056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9784255118425766</v>
+        <v>0.9791561352811744</v>
       </c>
     </row>
     <row r="15">
@@ -2889,19 +2889,19 @@
         <v>58462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44597</v>
+        <v>44092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76561</v>
+        <v>75541</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0286261508400011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02183725375963793</v>
+        <v>0.02158982205069808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03748880031700936</v>
+        <v>0.03698935646267665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -2910,19 +2910,19 @@
         <v>7207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006871613161946873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -2931,19 +2931,19 @@
         <v>65668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49536</v>
+        <v>51421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83372</v>
+        <v>83559</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02124506827624544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01602602527691192</v>
+        <v>0.0166359273610199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02697281753136162</v>
+        <v>0.02703321172348632</v>
       </c>
     </row>
     <row r="17">
@@ -2960,19 +2960,19 @@
         <v>1983782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1965683</v>
+        <v>1966703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1997647</v>
+        <v>1998152</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9713738491599989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9625111996829908</v>
+        <v>0.9630106435373234</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9781627462403621</v>
+        <v>0.9784101779493017</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>956</v>
@@ -2981,19 +2981,19 @@
         <v>1041530</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1034980</v>
+        <v>1034154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1045678</v>
+        <v>1045634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9931283868380532</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9868822396902583</v>
+        <v>0.9860948509845969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9970831536249486</v>
+        <v>0.9970408341090327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2822</v>
@@ -3002,19 +3002,19 @@
         <v>3025312</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3007608</v>
+        <v>3007421</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3041444</v>
+        <v>3039559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9787549317237546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9730271824686388</v>
+        <v>0.9729667882765135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9839739747230881</v>
+        <v>0.9833640726389801</v>
       </c>
     </row>
     <row r="18">
@@ -3346,19 +3346,19 @@
         <v>6143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2719</v>
+        <v>2126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12699</v>
+        <v>13404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01429550222224195</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006328021021561499</v>
+        <v>0.00494769168990851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02955085541159494</v>
+        <v>0.0311913586093648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3796</v>
+        <v>4682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00445659892833268</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02055255862958465</v>
+        <v>0.02535206546912867</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3388,19 +3388,19 @@
         <v>6966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2887</v>
+        <v>2912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15027</v>
+        <v>14240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01133797216456711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004699083455230477</v>
+        <v>0.004738754189891828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02445732390604806</v>
+        <v>0.02317621033702908</v>
       </c>
     </row>
     <row r="5">
@@ -3417,19 +3417,19 @@
         <v>423587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417031</v>
+        <v>416326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427011</v>
+        <v>427604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.985704497777758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9704491445884053</v>
+        <v>0.9688086413906351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9936719789784385</v>
+        <v>0.9950523083100915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -3438,7 +3438,7 @@
         <v>183870</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180897</v>
+        <v>180011</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>184693</v>
@@ -3447,7 +3447,7 @@
         <v>0.9955434010716673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9794474413704171</v>
+        <v>0.974647934530871</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3459,19 +3459,19 @@
         <v>607457</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>599396</v>
+        <v>600183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611536</v>
+        <v>611511</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9886620278354329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9755426760939517</v>
+        <v>0.9768237896629705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9953009165447694</v>
+        <v>0.9952612458101082</v>
       </c>
     </row>
     <row r="6">
@@ -3563,19 +3563,19 @@
         <v>17501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10151</v>
+        <v>10513</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29129</v>
+        <v>30653</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03045996131779046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01766842094626974</v>
+        <v>0.01829822764028683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05069916867453295</v>
+        <v>0.05335110280974649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6283</v>
+        <v>6416</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006303134761782968</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01949342833295344</v>
+        <v>0.0199060596609183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -3605,19 +3605,19 @@
         <v>19533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11385</v>
+        <v>11948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30915</v>
+        <v>31936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02177852552425082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01269439915253152</v>
+        <v>0.01332209059627957</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03446951706826723</v>
+        <v>0.03560784567206877</v>
       </c>
     </row>
     <row r="8">
@@ -3634,19 +3634,19 @@
         <v>557054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>545426</v>
+        <v>543902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>564404</v>
+        <v>564042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9695400386822095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9493008313254667</v>
+        <v>0.9466488971902532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9823315790537301</v>
+        <v>0.981701772359713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>305</v>
@@ -3655,7 +3655,7 @@
         <v>320284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316033</v>
+        <v>315900</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>322316</v>
@@ -3664,7 +3664,7 @@
         <v>0.993696865238217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9805065716670466</v>
+        <v>0.9800939403390818</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3676,19 +3676,19 @@
         <v>877337</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>865955</v>
+        <v>864934</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>885485</v>
+        <v>884922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9782214744757491</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.965530482931733</v>
+        <v>0.9643921543279312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9873056008474685</v>
+        <v>0.9866779094037207</v>
       </c>
     </row>
     <row r="9">
@@ -3780,19 +3780,19 @@
         <v>3887</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11225</v>
+        <v>11726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009170803291942142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002453860413163177</v>
+        <v>0.002482193826188266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02648067660196616</v>
+        <v>0.02766184360203003</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3814,19 +3814,19 @@
         <v>3887</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11222</v>
+        <v>10023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005948132989660301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001598847199864271</v>
+        <v>0.001609750677961982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01716995325868719</v>
+        <v>0.01533654183498808</v>
       </c>
     </row>
     <row r="11">
@@ -3843,19 +3843,19 @@
         <v>420012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412674</v>
+        <v>412173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>422859</v>
+        <v>422847</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9908291967080578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9735193233980338</v>
+        <v>0.9723381563979701</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975461395868368</v>
+        <v>0.9975178061738118</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -3877,19 +3877,19 @@
         <v>649679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642344</v>
+        <v>643543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652521</v>
+        <v>652514</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9940518670103397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9828300467413127</v>
+        <v>0.9846634581650119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9984011528001357</v>
+        <v>0.998390249322038</v>
       </c>
     </row>
     <row r="12">
@@ -3981,19 +3981,19 @@
         <v>14703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7897</v>
+        <v>8661</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23659</v>
+        <v>23444</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02559629991216433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01374816996471112</v>
+        <v>0.01507729398358607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04118690041335779</v>
+        <v>0.04081291338401085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4002,19 +4002,19 @@
         <v>8901</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4690</v>
+        <v>4051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16693</v>
+        <v>15601</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02181353799241298</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01149225290444444</v>
+        <v>0.009928227330823245</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04090714738826035</v>
+        <v>0.03823051423224366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -4023,19 +4023,19 @@
         <v>23605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15577</v>
+        <v>15495</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34608</v>
+        <v>32908</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.024025173601921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01585394550756284</v>
+        <v>0.01577138258800244</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03522402621839996</v>
+        <v>0.03349372783278345</v>
       </c>
     </row>
     <row r="14">
@@ -4052,19 +4052,19 @@
         <v>559727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>550771</v>
+        <v>550986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>566533</v>
+        <v>565769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9744037000878357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9588130995866422</v>
+        <v>0.9591870866159893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9862518300352888</v>
+        <v>0.984922706016414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>369</v>
@@ -4073,19 +4073,19 @@
         <v>399169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391377</v>
+        <v>392469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>403380</v>
+        <v>404019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.978186462007587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9590928526117396</v>
+        <v>0.9617694857677561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9885077470955553</v>
+        <v>0.9900717726691768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>922</v>
@@ -4094,19 +4094,19 @@
         <v>958895</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>947892</v>
+        <v>949592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>966923</v>
+        <v>967005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.975974826398079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9647759737815998</v>
+        <v>0.966506272167216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9841460544924371</v>
+        <v>0.9842286174119974</v>
       </c>
     </row>
     <row r="15">
@@ -4198,19 +4198,19 @@
         <v>42235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29877</v>
+        <v>29187</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57145</v>
+        <v>57686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02108988532709182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01491885692777258</v>
+        <v>0.01457452095551534</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02853495599252737</v>
+        <v>0.02880516240130222</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4219,19 +4219,19 @@
         <v>11756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5946</v>
+        <v>6588</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19867</v>
+        <v>20357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01026966867166868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005194030710306276</v>
+        <v>0.00575511526992899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01735462291319657</v>
+        <v>0.01778307388496512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -4240,19 +4240,19 @@
         <v>53991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40350</v>
+        <v>40594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70093</v>
+        <v>70881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01715439910276291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0128204070235271</v>
+        <v>0.01289779516664207</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0222704794329203</v>
+        <v>0.022520919483899</v>
       </c>
     </row>
     <row r="17">
@@ -4269,19 +4269,19 @@
         <v>1960379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1945469</v>
+        <v>1944928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1972737</v>
+        <v>1973427</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9789101146729082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9714650440074727</v>
+        <v>0.9711948375986977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9850811430722275</v>
+        <v>0.9854254790444847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1082</v>
@@ -4290,19 +4290,19 @@
         <v>1132989</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1124878</v>
+        <v>1124388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1138799</v>
+        <v>1138157</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9897303313283313</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9826453770868033</v>
+        <v>0.9822169261150346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9948059692896937</v>
+        <v>0.9942448847300709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2938</v>
@@ -4311,19 +4311,19 @@
         <v>3093368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3077266</v>
+        <v>3076478</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3107009</v>
+        <v>3106765</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.982845600897237</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9777295205670796</v>
+        <v>0.9774790805161011</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9871795929764728</v>
+        <v>0.987102204833358</v>
       </c>
     </row>
     <row r="18">
@@ -4655,19 +4655,19 @@
         <v>1968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6151</v>
+        <v>6232</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005573334005082201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001559010196488274</v>
+        <v>0.00153991656424363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01741810076886926</v>
+        <v>0.01764640870512208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00761339573985411</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4697,19 +4697,19 @@
         <v>3286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7848</v>
+        <v>8015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00624431998928243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002484674436524066</v>
+        <v>0.002461982995871807</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0149135115624989</v>
+        <v>0.01523104415969594</v>
       </c>
     </row>
     <row r="5">
@@ -4726,19 +4726,19 @@
         <v>351187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347004</v>
+        <v>346923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352604</v>
+        <v>352611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9944266659949177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9825818992311308</v>
+        <v>0.9823535912948781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984409898035117</v>
+        <v>0.9984600834357564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -4747,7 +4747,7 @@
         <v>171764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168461</v>
+        <v>168203</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>173082</v>
@@ -4756,7 +4756,7 @@
         <v>0.9923866042601459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9733033224535927</v>
+        <v>0.9718092521448255</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4768,19 +4768,19 @@
         <v>522951</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518389</v>
+        <v>518222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524929</v>
+        <v>524941</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9937556800107177</v>
+        <v>0.9937556800107176</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.985086488437501</v>
+        <v>0.9847689558403043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9975153255634758</v>
+        <v>0.9975380170041283</v>
       </c>
     </row>
     <row r="6">
@@ -4872,19 +4872,19 @@
         <v>12338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6602</v>
+        <v>6509</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25293</v>
+        <v>24901</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02464069978312617</v>
+        <v>0.02464069978312616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01318480419738179</v>
+        <v>0.01299853778363424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05051392405150405</v>
+        <v>0.04972949643343341</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4893,19 +4893,19 @@
         <v>5696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12152</v>
+        <v>12590</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02559648696977012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0106309714209935</v>
+        <v>0.01059753571892724</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05460993471541586</v>
+        <v>0.05657752260363572</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4914,19 +4914,19 @@
         <v>18034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10710</v>
+        <v>11081</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30569</v>
+        <v>30923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02493476447663692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01480790347842046</v>
+        <v>0.01532111441849464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04226681843438996</v>
+        <v>0.04275608979547139</v>
       </c>
     </row>
     <row r="8">
@@ -4943,19 +4943,19 @@
         <v>488385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>475430</v>
+        <v>475822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>494121</v>
+        <v>494214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9753593002168739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9494860759484962</v>
+        <v>0.9502705035665666</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868151958026182</v>
+        <v>0.9870014622163658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -4964,19 +4964,19 @@
         <v>216822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210366</v>
+        <v>209928</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>220152</v>
+        <v>220160</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.97440351303023</v>
+        <v>0.9744035130302299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9453900652845836</v>
+        <v>0.9434224773963642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893690285790065</v>
+        <v>0.9894024642810726</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>711</v>
@@ -4985,19 +4985,19 @@
         <v>705207</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692672</v>
+        <v>692318</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712531</v>
+        <v>712160</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9750652355233632</v>
+        <v>0.9750652355233629</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9577331815656103</v>
+        <v>0.9572439102045285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9851920965215796</v>
+        <v>0.9846788855815053</v>
       </c>
     </row>
     <row r="9">
@@ -5089,19 +5089,19 @@
         <v>6628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2290</v>
+        <v>2269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16140</v>
+        <v>17360</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01840134584347033</v>
+        <v>0.01840134584347032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006356886424825816</v>
+        <v>0.006299020982927016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04480947606292628</v>
+        <v>0.04819878539978637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5110,19 +5110,19 @@
         <v>4830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1452</v>
+        <v>1428</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13415</v>
+        <v>13841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02401348048688212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007219029862816746</v>
+        <v>0.007097837161705508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06669720871787009</v>
+        <v>0.06881497908758935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5131,19 +5131,19 @@
         <v>11458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5504</v>
+        <v>5280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24104</v>
+        <v>22347</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02041231422263177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009805724624792027</v>
+        <v>0.009406338950301348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04294217558983535</v>
+        <v>0.03981148159066561</v>
       </c>
     </row>
     <row r="11">
@@ -5160,19 +5160,19 @@
         <v>353555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>344043</v>
+        <v>342823</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357893</v>
+        <v>357914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9815986541565297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9551905239370738</v>
+        <v>0.9518012146002112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9936431135751742</v>
+        <v>0.9937009790170729</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -5181,19 +5181,19 @@
         <v>196304</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187719</v>
+        <v>187293</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199682</v>
+        <v>199706</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9759865195131179</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9333027912821295</v>
+        <v>0.9311850209124103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9927809701371832</v>
+        <v>0.9929021628382946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -5202,19 +5202,19 @@
         <v>549859</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537213</v>
+        <v>538970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555813</v>
+        <v>556037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9795876857773684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.957057824410165</v>
+        <v>0.9601885184093346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9901942753752081</v>
+        <v>0.9905936610496989</v>
       </c>
     </row>
     <row r="12">
@@ -5306,19 +5306,19 @@
         <v>15432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8688</v>
+        <v>8317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25867</v>
+        <v>25285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03322033427458675</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01870352003133593</v>
+        <v>0.01790454573107752</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05568520387455811</v>
+        <v>0.0544312514605434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5327,19 +5327,19 @@
         <v>5301</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1761</v>
+        <v>1890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13867</v>
+        <v>14873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01721997229951737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005721444405678217</v>
+        <v>0.006140072627090006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04504699754807457</v>
+        <v>0.04831220187060148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5348,19 +5348,19 @@
         <v>20733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13680</v>
+        <v>12432</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32831</v>
+        <v>31269</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02684305115821132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0177121471336455</v>
+        <v>0.0160953518120689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04250671966542024</v>
+        <v>0.04048484318988867</v>
       </c>
     </row>
     <row r="14">
@@ -5377,19 +5377,19 @@
         <v>449091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438656</v>
+        <v>439238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>455835</v>
+        <v>456206</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9667796657254133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9443147961254421</v>
+        <v>0.9455687485394566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9812964799686642</v>
+        <v>0.9820954542689225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>411</v>
@@ -5398,19 +5398,19 @@
         <v>302542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293976</v>
+        <v>292970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306082</v>
+        <v>305953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9827800277004827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9549530024519249</v>
+        <v>0.9516877981293992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9942785555943218</v>
+        <v>0.9938599273729101</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>879</v>
@@ -5419,19 +5419,19 @@
         <v>751633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739535</v>
+        <v>741097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>758686</v>
+        <v>759934</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9731569488417887</v>
+        <v>0.9731569488417886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9574932803345794</v>
+        <v>0.9595151568101112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9822878528663543</v>
+        <v>0.983904648187931</v>
       </c>
     </row>
     <row r="15">
@@ -5523,19 +5523,19 @@
         <v>36366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24348</v>
+        <v>25480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50883</v>
+        <v>53709</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02166461686918816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01450507408791899</v>
+        <v>0.01517951670720425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03031279102622324</v>
+        <v>0.03199657000424741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -5544,19 +5544,19 @@
         <v>17144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10490</v>
+        <v>10282</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28799</v>
+        <v>28174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01895294476522579</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01159679876981761</v>
+        <v>0.01136709757893819</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03183745372938492</v>
+        <v>0.03114575368916072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -5565,19 +5565,19 @@
         <v>53510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40564</v>
+        <v>39432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73014</v>
+        <v>69988</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02071503823280385</v>
+        <v>0.02071503823280386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01570336073091354</v>
+        <v>0.01526496235001995</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02826555243181266</v>
+        <v>0.02709389389658603</v>
       </c>
     </row>
     <row r="17">
@@ -5594,19 +5594,19 @@
         <v>1642218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1627701</v>
+        <v>1624875</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1654236</v>
+        <v>1653104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9783353831308118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9696872089737768</v>
+        <v>0.9680034299957526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9854949259120812</v>
+        <v>0.9848204832927958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1182</v>
@@ -5615,19 +5615,19 @@
         <v>887432</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>875777</v>
+        <v>876402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>894086</v>
+        <v>894294</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9810470552347742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.968162546270615</v>
+        <v>0.9688542463108393</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884032012301823</v>
+        <v>0.9886329024210617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2732</v>
@@ -5636,19 +5636,19 @@
         <v>2529650</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2510146</v>
+        <v>2513172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2542596</v>
+        <v>2543728</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9792849617671961</v>
+        <v>0.9792849617671963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9717344475681872</v>
+        <v>0.9729061061034137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9842966392690863</v>
+        <v>0.9847350376499799</v>
       </c>
     </row>
     <row r="18">
